--- a/public/templates/pms.xlsx
+++ b/public/templates/pms.xlsx
@@ -2530,6 +2530,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2538,9 +2544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2563,9 +2566,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2576,9 +2576,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2606,9 +2603,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,11 +2620,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3374,8 +3374,8 @@
   </sheetPr>
   <dimension ref="A2:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,12 +3407,12 @@
       <c r="C8" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="28" t="s">
         <v>1</v>
       </c>
@@ -3439,73 +3439,73 @@
       <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="120" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="120"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
       <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="109" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109" t="s">
+      <c r="H13" s="108"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108" t="s">
         <v>554</v>
       </c>
-      <c r="M13" s="109"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
@@ -3522,9 +3522,9 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="8"/>
@@ -3543,24 +3543,24 @@
         <v>572</v>
       </c>
       <c r="D16" s="27"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="110" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="R16" s="91" t="s">
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="R16" s="93" t="s">
         <v>556</v>
       </c>
-      <c r="S16" s="91"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -3570,20 +3570,20 @@
         <v>573</v>
       </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="110" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
     </row>
     <row r="18" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -3591,18 +3591,18 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -3619,11 +3619,11 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="F20" s="23" t="s">
         <v>6</v>
       </c>
@@ -3633,15 +3633,15 @@
       <c r="J20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="93" t="s">
+      <c r="L20" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93" t="s">
+      <c r="M20" s="94"/>
+      <c r="N20" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
       <c r="R20" s="75" t="s">
         <v>485</v>
       </c>
@@ -3650,295 +3650,253 @@
       <c r="B21" s="71">
         <v>1</v>
       </c>
-      <c r="C21" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:O100,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="100"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
       <c r="F21" s="75"/>
       <c r="H21" s="75"/>
       <c r="J21" s="75"/>
-      <c r="L21" s="94" t="str">
+      <c r="L21" s="95" t="str">
         <f>IF(OR(F21=$R$20,),"Good",IF(OR(H21=$R$20,),"Fail",IF(OR(J21=$R$20),"N/A","N/A")))</f>
         <v>N/A</v>
       </c>
-      <c r="M21" s="94"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="74">
         <v>2</v>
       </c>
-      <c r="C22" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:O100,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="100"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
       <c r="F22" s="75"/>
       <c r="H22" s="75"/>
       <c r="J22" s="74"/>
-      <c r="L22" s="94" t="str">
+      <c r="L22" s="95" t="str">
         <f t="shared" ref="L22:L34" si="0">IF(OR(F22=$R$20,),"Good",IF(OR(H22=$R$20,),"Fail",IF(OR(J22=$R$20),"N/A","N/A")))</f>
         <v>N/A</v>
       </c>
-      <c r="M22" s="94"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="71">
         <v>3</v>
       </c>
-      <c r="C23" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:O100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="100"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
       <c r="F23" s="72"/>
       <c r="H23" s="73"/>
       <c r="J23" s="75"/>
-      <c r="L23" s="94" t="str">
+      <c r="L23" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M23" s="94"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="74">
         <v>4</v>
       </c>
-      <c r="C24" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:O100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="100"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
       <c r="F24" s="30"/>
       <c r="H24" s="73"/>
       <c r="J24" s="75"/>
-      <c r="L24" s="94" t="str">
+      <c r="L24" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="71">
         <v>5</v>
       </c>
-      <c r="C25" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:O100,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="100"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
       <c r="F25" s="72"/>
       <c r="H25" s="73"/>
       <c r="J25" s="75"/>
-      <c r="L25" s="94" t="str">
+      <c r="L25" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M25" s="94"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="74">
         <v>6</v>
       </c>
-      <c r="C26" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:O100,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="100"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
       <c r="F26" s="75"/>
       <c r="H26" s="73"/>
       <c r="J26" s="74"/>
-      <c r="L26" s="94" t="str">
+      <c r="L26" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M26" s="94"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="71">
         <v>7</v>
       </c>
-      <c r="C27" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="100"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
       <c r="F27" s="75"/>
       <c r="H27" s="73"/>
       <c r="J27" s="74"/>
-      <c r="L27" s="94" t="str">
+      <c r="L27" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="74">
         <v>8</v>
       </c>
-      <c r="C28" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,9,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="100"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
       <c r="F28" s="75"/>
       <c r="H28" s="73"/>
       <c r="J28" s="74"/>
-      <c r="L28" s="94" t="str">
+      <c r="L28" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="71">
         <v>9</v>
       </c>
-      <c r="C29" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,10,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="100"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
       <c r="F29" s="72"/>
       <c r="H29" s="73"/>
       <c r="J29" s="74"/>
-      <c r="L29" s="94" t="str">
+      <c r="L29" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="74">
         <v>10</v>
       </c>
-      <c r="C30" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,11,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="100"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
       <c r="F30" s="30"/>
       <c r="H30" s="73"/>
       <c r="J30" s="74"/>
-      <c r="L30" s="94" t="str">
+      <c r="L30" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="71">
         <v>11</v>
       </c>
-      <c r="C31" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,12,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="100"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="F31" s="72"/>
       <c r="H31" s="73"/>
       <c r="J31" s="74"/>
-      <c r="L31" s="94" t="str">
+      <c r="L31" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M31" s="94"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="74">
         <v>12</v>
       </c>
-      <c r="C32" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,13,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="100"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="F32" s="30"/>
       <c r="H32" s="73"/>
       <c r="J32" s="74"/>
-      <c r="L32" s="94" t="str">
+      <c r="L32" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="71">
         <v>13</v>
       </c>
-      <c r="C33" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,14,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="100"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="F33" s="72"/>
       <c r="H33" s="73"/>
       <c r="J33" s="74"/>
-      <c r="L33" s="94" t="str">
+      <c r="L33" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
     </row>
     <row r="34" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="74">
         <v>14</v>
       </c>
-      <c r="C34" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$O$100,15,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="100"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="F34" s="30"/>
       <c r="H34" s="73"/>
       <c r="J34" s="74"/>
-      <c r="L34" s="94" t="str">
+      <c r="L34" s="95" t="str">
         <f t="shared" si="0"/>
         <v>N/A</v>
       </c>
-      <c r="M34" s="94"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
     </row>
     <row r="35" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="101" t="s">
@@ -3955,10 +3913,10 @@
       <c r="J35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="93" t="s">
+      <c r="L35" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="93"/>
+      <c r="M35" s="94"/>
       <c r="N35" s="101" t="s">
         <v>10</v>
       </c>
@@ -3969,103 +3927,88 @@
       <c r="B36" s="74">
         <v>1</v>
       </c>
-      <c r="C36" s="105" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:U100,16,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D36" s="105"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="F36" s="30"/>
       <c r="H36" s="73"/>
       <c r="J36" s="73"/>
-      <c r="L36" s="94" t="str">
+      <c r="L36" s="95" t="str">
         <f t="shared" ref="L36:L41" si="1">IF(OR(F36=$R$20,),"Good",IF(OR(H36=$R$20,),"Fail",IF(OR(J36=$R$20),"N/A","N/A")))</f>
         <v>N/A</v>
       </c>
-      <c r="M36" s="94"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
     </row>
     <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="71">
         <v>2</v>
       </c>
-      <c r="C37" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:U100,17,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="100"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="F37" s="72"/>
       <c r="H37" s="73"/>
       <c r="J37" s="73"/>
-      <c r="L37" s="94" t="str">
+      <c r="L37" s="95" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="M37" s="94"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
     </row>
     <row r="38" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="74">
         <v>3</v>
       </c>
-      <c r="C38" s="105" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:U100,18,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="105"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="F38" s="30"/>
       <c r="H38" s="73"/>
       <c r="J38" s="73"/>
-      <c r="L38" s="94" t="str">
+      <c r="L38" s="95" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="M38" s="94"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
     </row>
     <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="71">
         <v>4</v>
       </c>
-      <c r="C39" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$U$100,19,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="100"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="F39" s="72"/>
       <c r="H39" s="73"/>
       <c r="J39" s="73"/>
-      <c r="L39" s="94" t="str">
+      <c r="L39" s="95" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="M39" s="94"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
     </row>
     <row r="40" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="74">
         <v>5</v>
       </c>
-      <c r="C40" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$U$100,20,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" s="100"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="F40" s="30"/>
       <c r="H40" s="73"/>
       <c r="J40" s="73"/>
-      <c r="L40" s="94" t="str">
+      <c r="L40" s="95" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="M40" s="94"/>
+      <c r="M40" s="95"/>
       <c r="N40" s="102"/>
       <c r="O40" s="103"/>
       <c r="P40" s="104"/>
@@ -4074,22 +4017,19 @@
       <c r="B41" s="71">
         <v>6</v>
       </c>
-      <c r="C41" s="100" t="e">
-        <f>VLOOKUP($D$8,Equipments!$A$2:$U$100,21,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41" s="100"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="F41" s="72"/>
       <c r="H41" s="73"/>
       <c r="J41" s="73"/>
-      <c r="L41" s="94" t="str">
+      <c r="L41" s="95" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="M41" s="94"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
     </row>
     <row r="42" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="101" t="s">
@@ -4120,43 +4060,37 @@
       <c r="B43" s="74">
         <v>1</v>
       </c>
-      <c r="C43" s="105" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:W100,22,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43" s="105"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="F43" s="30"/>
       <c r="H43" s="73"/>
       <c r="J43" s="30"/>
-      <c r="L43" s="106" t="str">
+      <c r="L43" s="105" t="str">
         <f t="shared" ref="L43:L44" si="2">IF(OR(F43=$R$20,),"Good",IF(OR(H43=$R$20,),"Fail",IF(OR(J43=$R$20),"N/A","N/A")))</f>
         <v>N/A</v>
       </c>
-      <c r="M43" s="107"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
     </row>
     <row r="44" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="71">
         <v>2</v>
       </c>
-      <c r="C44" s="100" t="e">
-        <f>VLOOKUP(D8,Equipments!A2:W100,23,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" s="100"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="F44" s="72"/>
       <c r="H44" s="73"/>
       <c r="J44" s="72"/>
-      <c r="L44" s="94" t="str">
+      <c r="L44" s="95" t="str">
         <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
-      <c r="M44" s="94"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
     </row>
     <row r="45" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="101" t="s">
@@ -4187,106 +4121,91 @@
       <c r="B46" s="74">
         <v>1</v>
       </c>
-      <c r="C46" s="105" t="e">
-        <f>VLOOKUP($D$8,Equipments!A2:AB100,24,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="105"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="F46" s="30"/>
       <c r="H46" s="73"/>
       <c r="J46" s="74"/>
-      <c r="L46" s="94" t="str">
+      <c r="L46" s="95" t="str">
         <f t="shared" ref="L46:L50" si="3">IF(OR(F46=$R$20,),"Good",IF(OR(H46=$R$20,),"Fail",IF(OR(J46=$R$20),"N/A","N/A")))</f>
         <v>N/A</v>
       </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="71">
         <v>2</v>
       </c>
-      <c r="C47" s="105" t="e">
-        <f>VLOOKUP($D$8,Equipments!A3:AB101,25,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" s="105"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="F47" s="72"/>
       <c r="H47" s="73"/>
       <c r="J47" s="71"/>
-      <c r="L47" s="106" t="str">
+      <c r="L47" s="105" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
       </c>
-      <c r="M47" s="107"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
     </row>
     <row r="48" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="74">
         <v>3</v>
       </c>
-      <c r="C48" s="105" t="e">
-        <f>VLOOKUP($D$8,Equipments!A4:AB102,26,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" s="105"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="F48" s="30"/>
       <c r="H48" s="73"/>
       <c r="J48" s="74"/>
-      <c r="L48" s="94" t="str">
+      <c r="L48" s="95" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
       </c>
-      <c r="M48" s="94"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="71">
         <v>4</v>
       </c>
-      <c r="C49" s="105" t="e">
-        <f>VLOOKUP($D$8,Equipments!A5:AB103,27,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" s="105"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="F49" s="72"/>
       <c r="H49" s="73"/>
       <c r="J49" s="71"/>
-      <c r="L49" s="106" t="str">
+      <c r="L49" s="105" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
       </c>
-      <c r="M49" s="107"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="92"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="74">
         <v>5</v>
       </c>
-      <c r="C50" s="105" t="e">
-        <f>VLOOKUP($D$8,Equipments!A6:AB104,28,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" s="105"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="F50" s="30"/>
       <c r="H50" s="73"/>
       <c r="J50" s="71"/>
-      <c r="L50" s="94" t="str">
+      <c r="L50" s="95" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
       </c>
-      <c r="M50" s="94"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="92"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
     </row>
     <row r="51" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
@@ -4307,21 +4226,21 @@
       <c r="C52" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="D52" s="95" t="s">
+      <c r="D52" s="96" t="s">
         <v>561</v>
       </c>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
     </row>
     <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -4329,37 +4248,37 @@
       <c r="C53" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="91"/>
     </row>
     <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="12"/>
       <c r="C54" s="29"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91"/>
     </row>
     <row r="55" spans="1:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -4377,51 +4296,51 @@
       <c r="M55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="119" t="s">
+      <c r="B56" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="119"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="J56" s="119" t="s">
+      <c r="C56" s="117"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="J56" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="116" t="s">
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
+      <c r="N56" s="114"/>
+      <c r="O56" s="114"/>
     </row>
     <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="119" t="s">
+      <c r="B57" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="J57" s="119" t="s">
+      <c r="C57" s="117"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="J57" s="117" t="s">
         <v>448</v>
       </c>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="119" t="s">
         <v>476</v>
       </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="2"/>
       <c r="G59" s="2"/>
       <c r="I59" s="1"/>
@@ -4429,27 +4348,27 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="115" t="s">
+      <c r="B60" s="113" t="s">
         <v>477</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="113" t="s">
         <v>479</v>
       </c>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="115" t="s">
+      <c r="B62" s="113" t="s">
         <v>478</v>
       </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
       <c r="E62" s="6"/>
     </row>
   </sheetData>
@@ -4501,6 +4420,7 @@
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:P41"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="D53:P53"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="I13:K13"/>
@@ -4546,7 +4466,8 @@
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="N35:P35"/>
-    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B42:D42"/>
@@ -4582,8 +4503,6 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5837,41 +5756,41 @@
       <c r="A1" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121" t="s">
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
+      <c r="W1" s="120"/>
+      <c r="X1" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
     </row>
